--- a/Finished/TSC/Tractor Supply ASN 9015968195 11.04.2024.xlsx
+++ b/Finished/TSC/Tractor Supply ASN 9015968195 11.04.2024.xlsx
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="E13" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="15" t="n"/>
       <c r="G13" s="15" t="n"/>
@@ -1777,7 +1777,11 @@
     </row>
     <row r="18" customFormat="1" s="8">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="9" t="n"/>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>9015968195</t>
+        </is>
+      </c>
       <c r="C18" s="10" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
